--- a/Podział pracy i terminarz.xlsx
+++ b/Podział pracy i terminarz.xlsx
@@ -1,249 +1,419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
-    <t>Etap 1 (do 15 października)</t>
-  </si>
-  <si>
-    <t>Zadanie</t>
-  </si>
-  <si>
-    <t>Wystawienie REST API</t>
-  </si>
-  <si>
-    <t>Logowanie użytkowników (API)</t>
-  </si>
-  <si>
-    <t>Okno logowania</t>
-  </si>
-  <si>
-    <t>Komunikacja logowania z REST API</t>
-  </si>
-  <si>
-    <t>Odtwarzacz wideo</t>
-  </si>
-  <si>
-    <t>Szkielet okna głównego</t>
-  </si>
-  <si>
-    <t>Funkcjonalności edytora tekstowego</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Aleksander Szewczak</t>
-  </si>
-  <si>
-    <t>Artur Pyśk</t>
-  </si>
-  <si>
-    <t>Kamil Stasiak</t>
-  </si>
-  <si>
-    <t>Mergowane</t>
-  </si>
-  <si>
-    <t>TAK</t>
-  </si>
-  <si>
-    <t>Etap 2 (do 15 listopada)</t>
-  </si>
-  <si>
-    <t>Przypomnienie hasła</t>
-  </si>
-  <si>
-    <t>Nowy plik (Okno główne)</t>
-  </si>
-  <si>
-    <t>Transkrypcja</t>
-  </si>
-  <si>
-    <t>Autozapis</t>
-  </si>
-  <si>
-    <t>Skróty klawiszowe</t>
-  </si>
-  <si>
-    <t>Informacje</t>
-  </si>
-  <si>
-    <t>Highlighter</t>
+    <t xml:space="preserve">Etap 1 (do 15 października)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wystawienie REST API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logowanie użytkowników (API)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okno logowania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja logowania z REST API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odtwarzacz wideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szkielet okna głównego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcjonalności edytora tekstowego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Szewczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur Pyśk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamil Stasiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mergowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap 2 (do 15 listopada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przypomnienie hasła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowy plik (Okno główne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transkrypcja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autozapis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skróty klawiszowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informacje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighter</t>
   </si>
   <si>
     <t xml:space="preserve">[WWW] Stworzenie ról użytkowników
 </t>
   </si>
   <si>
-    <t>[WWW] Zarządzanie użytkownikami</t>
-  </si>
-  <si>
-    <t>[WWW] Rejestracja użytkowników</t>
-  </si>
-  <si>
-    <t>[WWW] Zarządzanie licencjami</t>
-  </si>
-  <si>
-    <t>Design aplikacji</t>
-  </si>
-  <si>
-    <t>Eksport do pliku</t>
-  </si>
-  <si>
-    <t>Obsługa ról</t>
-  </si>
-  <si>
-    <t>Aleksander Szewczak, Artur Pyśk</t>
-  </si>
-  <si>
-    <t>Artur Pyśk, Kamil Stasiak</t>
-  </si>
-  <si>
-    <t>Etap 3 (do 15 grudnia)</t>
-  </si>
-  <si>
-    <t>Kolejka zadań</t>
-  </si>
-  <si>
-    <t>Wnioski</t>
-  </si>
-  <si>
-    <t>Wysyłanie zadań</t>
-  </si>
-  <si>
-    <t>Weryfikowanie zadania</t>
-  </si>
-  <si>
-    <t>Notyfikacje</t>
-  </si>
-  <si>
-    <t>Odzyskiwanie danych</t>
-  </si>
-  <si>
-    <t>[WWW] Generowanie statystyk i wykresów</t>
-  </si>
-  <si>
-    <t>[WWW} Obsługa bazy napisów</t>
-  </si>
-  <si>
-    <t>Artur Pyśk, Aleksander Szewczak</t>
-  </si>
-  <si>
-    <t>Kamil Stasiak, Aleksander Szewczak</t>
-  </si>
-  <si>
-    <t>Etap 4 (do końca semestru)</t>
-  </si>
-  <si>
-    <t>Testowanie aplikacji desktopowej i www</t>
+    <t xml:space="preserve">[WWW] Zarządzanie użytkownikami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WWW] Rejestracja użytkowników</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WWW] Zarządzanie licencjami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design aplikacji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksport do pliku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obsługa ról</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Szewczak, Artur Pyśk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur Pyśk, Kamil Stasiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap 3 (do 15 grudnia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolejka zadań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnioski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wysyłanie zadań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weryfikowanie zadania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notyfikacje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odzyskiwanie danych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WWW] Generowanie statystyk i wykresów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WWW} Obsługa bazy napisów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur Pyśk, Aleksander Szewczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamil Stasiak, Aleksander Szewczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap 4 (do końca semestru)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testowanie aplikacji desktopowej i www</t>
   </si>
   <si>
     <t xml:space="preserve">Naprawa błędów
 </t>
   </si>
   <si>
-    <t>Wystawienie strony z aplikacją do pobrania</t>
-  </si>
-  <si>
-    <t>wszyscy</t>
+    <t xml:space="preserve">Wystawienie strony z aplikacją do pobrania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wszyscy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.57"/>
-    <col customWidth="1" min="2" max="2" width="36.29"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
-    <col customWidth="1" min="4" max="4" width="35.86"/>
-    <col customWidth="1" min="5" max="5" width="32.14"/>
-    <col customWidth="1" min="6" max="6" width="33.71"/>
-    <col customWidth="1" min="7" max="7" width="32.14"/>
-    <col customWidth="1" min="8" max="8" width="35.14"/>
-    <col customWidth="1" min="9" max="9" width="30.71"/>
-    <col customWidth="1" min="10" max="10" width="30.86"/>
-    <col customWidth="1" min="11" max="11" width="29.57"/>
-    <col customWidth="1" min="12" max="12" width="28.43"/>
-    <col customWidth="1" min="13" max="13" width="30.0"/>
-    <col customWidth="1" min="14" max="14" width="23.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -269,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -295,7 +465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -321,49 +491,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -373,44 +543,44 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -420,122 +590,128 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>